--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.70346198977929</v>
+        <v>93.89915211200834</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.7902811967212</v>
+        <v>128.4769624578221</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.1211736579799</v>
+        <v>116.2153014794309</v>
       </c>
       <c r="AD2" t="n">
-        <v>81703.46198977929</v>
+        <v>93899.15211200833</v>
       </c>
       <c r="AE2" t="n">
-        <v>111790.2811967212</v>
+        <v>128476.9624578221</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.690207685806809e-06</v>
+        <v>8.678112182791113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>101121.1736579799</v>
+        <v>116215.3014794309</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.0581654615072</v>
+        <v>70.33910692975684</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.43774332989499</v>
+        <v>96.24106924364519</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.85631659808122</v>
+        <v>87.05595667024447</v>
       </c>
       <c r="AD3" t="n">
-        <v>58058.1654615072</v>
+        <v>70339.10692975683</v>
       </c>
       <c r="AE3" t="n">
-        <v>79437.74332989499</v>
+        <v>96241.06924364518</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.022966967856385e-06</v>
+        <v>1.114406579019364e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.523148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>71856.31659808122</v>
+        <v>87055.95667024447</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.6691328316686</v>
+        <v>66.77948209932603</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.80071937218466</v>
+        <v>91.37063351108797</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.66184369878928</v>
+        <v>82.6503484883015</v>
       </c>
       <c r="AD4" t="n">
-        <v>54669.1328316686</v>
+        <v>66779.48209932604</v>
       </c>
       <c r="AE4" t="n">
-        <v>74800.71937218466</v>
+        <v>91370.63351108797</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.59431457511561e-06</v>
+        <v>1.220120845067093e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.303240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>67661.84369878928</v>
+        <v>82650.3484883015</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.50210271767929</v>
+        <v>65.61245198533672</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.20393728449032</v>
+        <v>89.77385142339367</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.21745625244627</v>
+        <v>81.20596104195847</v>
       </c>
       <c r="AD5" t="n">
-        <v>53502.10271767929</v>
+        <v>65612.45198533672</v>
       </c>
       <c r="AE5" t="n">
-        <v>73203.93728449033</v>
+        <v>89773.85142339366</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.811950799445255e-06</v>
+        <v>1.260389244598464e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.230902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>66217.45625244627</v>
+        <v>81205.96104195848</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.30363007491721</v>
+        <v>64.41397934257465</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.56413414178266</v>
+        <v>88.13404828068597</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.73415362019992</v>
+        <v>79.72265840971214</v>
       </c>
       <c r="AD6" t="n">
-        <v>52303.63007491721</v>
+        <v>64413.97934257465</v>
       </c>
       <c r="AE6" t="n">
-        <v>71564.13414178266</v>
+        <v>88134.04828068598</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.004535749883678e-06</v>
+        <v>1.296022502581461e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.170138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>64734.15362019993</v>
+        <v>79722.65840971214</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>51.66935149312064</v>
+        <v>63.77970076077807</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.69628620377289</v>
+        <v>87.26620034267621</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.94913187136131</v>
+        <v>78.93763666087351</v>
       </c>
       <c r="AD7" t="n">
-        <v>51669.35149312064</v>
+        <v>63779.70076077807</v>
       </c>
       <c r="AE7" t="n">
-        <v>70696.28620377289</v>
+        <v>87266.20034267621</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.068713227231849e-06</v>
+        <v>1.307897016149833e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.149884259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>63949.13187136131</v>
+        <v>78937.63666087351</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>50.64891610110277</v>
+        <v>62.7592653687602</v>
       </c>
       <c r="AB8" t="n">
-        <v>69.3000814819825</v>
+        <v>85.86999562088582</v>
       </c>
       <c r="AC8" t="n">
-        <v>62.6861789686325</v>
+        <v>77.67468375814472</v>
       </c>
       <c r="AD8" t="n">
-        <v>50648.91610110277</v>
+        <v>62759.2653687602</v>
       </c>
       <c r="AE8" t="n">
-        <v>69300.0814819825</v>
+        <v>85869.99562088582</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.219861164881637e-06</v>
+        <v>1.335863341886147e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.103587962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>62686.17896863251</v>
+        <v>77674.68375814472</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>50.76709071039986</v>
+        <v>62.87743997805729</v>
       </c>
       <c r="AB9" t="n">
-        <v>69.46177319591848</v>
+        <v>86.03168733482183</v>
       </c>
       <c r="AC9" t="n">
-        <v>62.83243905232626</v>
+        <v>77.82094384183847</v>
       </c>
       <c r="AD9" t="n">
-        <v>50767.09071039985</v>
+        <v>62877.43997805729</v>
       </c>
       <c r="AE9" t="n">
-        <v>69461.77319591849</v>
+        <v>86031.68733482182</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.196490479595274e-06</v>
+        <v>1.331539153229907e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.112268518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>62832.43905232626</v>
+        <v>77820.94384183847</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.84214652355955</v>
+        <v>83.28422993442207</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.87866492268361</v>
+        <v>113.9531576371401</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.06428005990985</v>
+        <v>103.0776282065421</v>
       </c>
       <c r="AD2" t="n">
-        <v>59842.14652355955</v>
+        <v>83284.22993442207</v>
       </c>
       <c r="AE2" t="n">
-        <v>81878.66492268362</v>
+        <v>113953.1576371401</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.49923641492171e-06</v>
+        <v>1.048239331718731e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.858796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>74064.28005990984</v>
+        <v>103077.6282065421</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.44834131392761</v>
+        <v>64.1268021006241</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.76213444320588</v>
+        <v>87.74111970888369</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.91325705075053</v>
+        <v>79.36723038932384</v>
       </c>
       <c r="AD3" t="n">
-        <v>52448.34131392761</v>
+        <v>64126.8021006241</v>
       </c>
       <c r="AE3" t="n">
-        <v>71762.13444320588</v>
+        <v>87741.11970888369</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.735505182176636e-06</v>
+        <v>1.283891238389939e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.335069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>64913.25705075053</v>
+        <v>79367.23038932384</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.38656533941591</v>
+        <v>62.06502612611239</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.94112159574395</v>
+        <v>84.92010686142179</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.36147771013309</v>
+        <v>76.81545104870638</v>
       </c>
       <c r="AD4" t="n">
-        <v>50386.56533941591</v>
+        <v>62065.0261261124</v>
       </c>
       <c r="AE4" t="n">
-        <v>68941.12159574396</v>
+        <v>84920.10686142178</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.167751031980204e-06</v>
+        <v>1.366283968316379e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.193287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>62361.47771013308</v>
+        <v>76815.45104870638</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.82537757782625</v>
+        <v>60.50383836452274</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.80503562559494</v>
+        <v>82.78402089127277</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.42925678695892</v>
+        <v>74.88323012553222</v>
       </c>
       <c r="AD5" t="n">
-        <v>48825.37757782624</v>
+        <v>60503.83836452274</v>
       </c>
       <c r="AE5" t="n">
-        <v>66805.03562559494</v>
+        <v>82784.02089127277</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.478570351578771e-06</v>
+        <v>1.425530927580979e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.100694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>60429.25678695893</v>
+        <v>74883.23012553222</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.1088945613714</v>
+        <v>59.7873553480679</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.82471195348209</v>
+        <v>81.80369721915991</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.5424938302193</v>
+        <v>73.99646716879259</v>
       </c>
       <c r="AD6" t="n">
-        <v>48108.8945613714</v>
+        <v>59787.3553480679</v>
       </c>
       <c r="AE6" t="n">
-        <v>65824.7119534821</v>
+        <v>81803.69721915992</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.545775997155319e-06</v>
+        <v>1.438341360828718e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>59542.4938302193</v>
+        <v>73996.46716879259</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>47.80713275091867</v>
+        <v>59.48559353761516</v>
       </c>
       <c r="AB7" t="n">
-        <v>65.41182813162936</v>
+        <v>81.39081339730718</v>
       </c>
       <c r="AC7" t="n">
-        <v>59.16901506083797</v>
+        <v>73.62298839941126</v>
       </c>
       <c r="AD7" t="n">
-        <v>47807.13275091867</v>
+        <v>59485.59353761516</v>
       </c>
       <c r="AE7" t="n">
-        <v>65411.82813162936</v>
+        <v>81390.81339730718</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.617490994860285e-06</v>
+        <v>1.452011346186045e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.063078703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>59169.01506083797</v>
+        <v>73622.98839941126</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.33717661524349</v>
+        <v>52.71536776041366</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.92759282936895</v>
+        <v>72.1274918076633</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.3990646716327</v>
+        <v>65.24374522112655</v>
       </c>
       <c r="AD2" t="n">
-        <v>42337.17661524349</v>
+        <v>52715.36776041365</v>
       </c>
       <c r="AE2" t="n">
-        <v>57927.59282936895</v>
+        <v>72127.4918076633</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.137418968194541e-06</v>
+        <v>1.733057281583302e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.155671296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>52399.0646716327</v>
+        <v>65243.74522112654</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.58644633565484</v>
+        <v>50.96463748082824</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.53216642391287</v>
+        <v>69.73206540236689</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.23225440040792</v>
+        <v>63.07693494994879</v>
       </c>
       <c r="AD3" t="n">
-        <v>40586.44633565484</v>
+        <v>50964.63748082823</v>
       </c>
       <c r="AE3" t="n">
-        <v>55532.16642391287</v>
+        <v>69732.06540236689</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.7442031447647e-06</v>
+        <v>1.862286431472798e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.005208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>50232.25440040792</v>
+        <v>63076.93494994879</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.02982554886995</v>
+        <v>58.91637024904956</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.71652624229901</v>
+        <v>80.61197698153296</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.4446332114719</v>
+        <v>72.91848303805452</v>
       </c>
       <c r="AD2" t="n">
-        <v>48029.82554886995</v>
+        <v>58916.37024904956</v>
       </c>
       <c r="AE2" t="n">
-        <v>65716.52624229901</v>
+        <v>80611.97698153296</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.050337518976987e-06</v>
+        <v>1.431462268843318e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.381365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>59444.6332114719</v>
+        <v>72918.48303805452</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.15134812358588</v>
+        <v>55.03789282376549</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.40982232268008</v>
+        <v>75.30527306191404</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.64439366593398</v>
+        <v>68.1182434925166</v>
       </c>
       <c r="AD3" t="n">
-        <v>44151.34812358588</v>
+        <v>55037.89282376549</v>
       </c>
       <c r="AE3" t="n">
-        <v>60409.82232268008</v>
+        <v>75305.27306191403</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.138359728315346e-06</v>
+        <v>1.652368393711705e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.063078703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>54644.39366593398</v>
+        <v>68118.2434925166</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>32.05424474608663</v>
+        <v>53.82715512934567</v>
       </c>
       <c r="AB4" t="n">
-        <v>43.85803179495397</v>
+        <v>73.64868833443236</v>
       </c>
       <c r="AC4" t="n">
-        <v>39.67228279565126</v>
+        <v>66.61976088639398</v>
       </c>
       <c r="AD4" t="n">
-        <v>32054.24474608663</v>
+        <v>53827.15512934567</v>
       </c>
       <c r="AE4" t="n">
-        <v>43858.03179495397</v>
+        <v>73648.68833443236</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.389834371156026e-06</v>
+        <v>1.703426440482991e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.999421296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>39672.28279565126</v>
+        <v>66619.76088639398</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.58759799751054</v>
+        <v>48.54883494848623</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.79725394471204</v>
+        <v>66.42665779993237</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.7583581297401</v>
+        <v>60.08699080992086</v>
       </c>
       <c r="AD2" t="n">
-        <v>38587.59799751054</v>
+        <v>48548.83494848623</v>
       </c>
       <c r="AE2" t="n">
-        <v>52797.25394471204</v>
+        <v>66426.65779993238</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.943261067150388e-06</v>
+        <v>1.991489556265165e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.037037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>47758.3581297401</v>
+        <v>60086.99080992086</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.52769714961003</v>
+        <v>48.48893410058572</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.71529496197605</v>
+        <v>66.34469881719602</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.68422119728604</v>
+        <v>60.01285387746668</v>
       </c>
       <c r="AD3" t="n">
-        <v>38527.69714961003</v>
+        <v>48488.93410058571</v>
       </c>
       <c r="AE3" t="n">
-        <v>52715.29496197605</v>
+        <v>66344.69881719603</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.007924043185049e-06</v>
+        <v>2.005888738004705e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.022569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>47684.22119728604</v>
+        <v>60012.85387746668</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.788276189683</v>
+        <v>85.45739599029476</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.54144538905375</v>
+        <v>116.9265793081036</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.47292849580631</v>
+        <v>105.7672706864533</v>
       </c>
       <c r="AD2" t="n">
-        <v>61788.27618968301</v>
+        <v>85457.39599029475</v>
       </c>
       <c r="AE2" t="n">
-        <v>84541.44538905376</v>
+        <v>116926.5793081036</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.31259517170654e-06</v>
+        <v>1.004486193676378e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.93113425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>76472.92849580632</v>
+        <v>105767.2706864533</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.79853201173385</v>
+        <v>65.59051099330496</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.60952492215307</v>
+        <v>89.74383079012757</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.58433517521641</v>
+        <v>81.17880553579707</v>
       </c>
       <c r="AD3" t="n">
-        <v>53798.53201173386</v>
+        <v>65590.51099330495</v>
       </c>
       <c r="AE3" t="n">
-        <v>73609.52492215307</v>
+        <v>89743.83079012757</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.552511197785427e-06</v>
+        <v>1.238925011101694e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.378472222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>66584.33517521642</v>
+        <v>81178.80553579707</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.88084616204164</v>
+        <v>62.67282514361273</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.61741842339102</v>
+        <v>85.75172429136553</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.97322971773829</v>
+        <v>77.56770007831895</v>
       </c>
       <c r="AD4" t="n">
-        <v>50880.84616204163</v>
+        <v>62672.82514361273</v>
       </c>
       <c r="AE4" t="n">
-        <v>69617.41842339102</v>
+        <v>85751.72429136554</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.136314640000607e-06</v>
+        <v>1.349308444917435e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.181712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>62973.22971773829</v>
+        <v>77567.70007831894</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.89280055912836</v>
+        <v>61.68477954069947</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.26553083999016</v>
+        <v>84.39983670796467</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.75036438791064</v>
+        <v>76.34483474849129</v>
       </c>
       <c r="AD5" t="n">
-        <v>49892.80055912836</v>
+        <v>61684.77954069947</v>
       </c>
       <c r="AE5" t="n">
-        <v>68265.53083999017</v>
+        <v>84399.83670796467</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.328151923465762e-06</v>
+        <v>1.385580341503756e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.126736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>61750.36438791064</v>
+        <v>76344.8347484913</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.00939994931093</v>
+        <v>60.80137893088202</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.05682315275421</v>
+        <v>83.19112902072871</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.65701406591221</v>
+        <v>75.25148442649285</v>
       </c>
       <c r="AD6" t="n">
-        <v>49009.39994931092</v>
+        <v>60801.37893088203</v>
       </c>
       <c r="AE6" t="n">
-        <v>67056.82315275421</v>
+        <v>83191.12902072871</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.463294101826004e-06</v>
+        <v>1.411132533597965e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.086226851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>60657.01406591221</v>
+        <v>75251.48442649285</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>48.51433617019069</v>
+        <v>60.30631515176179</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.37945504948974</v>
+        <v>82.51376091746425</v>
       </c>
       <c r="AC7" t="n">
-        <v>60.04429302373099</v>
+        <v>74.63876338431163</v>
       </c>
       <c r="AD7" t="n">
-        <v>48514.33617019069</v>
+        <v>60306.3151517618</v>
       </c>
       <c r="AE7" t="n">
-        <v>66379.45504948974</v>
+        <v>82513.76091746426</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.494468333407908e-06</v>
+        <v>1.417026844045195e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.077546296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>60044.29302373099</v>
+        <v>74638.76338431163</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>48.56936021318361</v>
+        <v>60.36133919475471</v>
       </c>
       <c r="AB8" t="n">
-        <v>66.45474137260207</v>
+        <v>82.58904724057659</v>
       </c>
       <c r="AC8" t="n">
-        <v>60.11239412583052</v>
+        <v>74.70686448641116</v>
       </c>
       <c r="AD8" t="n">
-        <v>48569.36021318361</v>
+        <v>60361.33919475471</v>
       </c>
       <c r="AE8" t="n">
-        <v>66454.74137260207</v>
+        <v>82589.04724057659</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.489568756423533e-06</v>
+        <v>1.416100449829827e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.080439814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>60112.39412583052</v>
+        <v>74706.86448641117</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.45321840964797</v>
+        <v>47.16755604842878</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.2451457473106</v>
+        <v>64.53673107115041</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.3543809602965</v>
+        <v>58.37743603560442</v>
       </c>
       <c r="AD2" t="n">
-        <v>37453.21840964798</v>
+        <v>47167.55604842878</v>
       </c>
       <c r="AE2" t="n">
-        <v>51245.1457473106</v>
+        <v>64536.73107115041</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.989543015537151e-06</v>
+        <v>2.060912739879312e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.074652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>46354.3809602965</v>
+        <v>58377.43603560442</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.66244629149308</v>
+        <v>65.14307781272154</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.42332643604148</v>
+        <v>89.13163297309485</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.41590721128806</v>
+        <v>80.62503501919673</v>
       </c>
       <c r="AD2" t="n">
-        <v>53662.44629149308</v>
+        <v>65143.07781272155</v>
       </c>
       <c r="AE2" t="n">
-        <v>73423.32643604148</v>
+        <v>89131.63297309485</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.214037157453712e-06</v>
+        <v>1.217942695102476e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.607060185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>66415.90721128805</v>
+        <v>80625.03501919673</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.47834943876293</v>
+        <v>59.78838875939919</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.33021641592778</v>
+        <v>81.80511117813428</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.99975365624929</v>
+        <v>73.99774618150693</v>
       </c>
       <c r="AD3" t="n">
-        <v>48478.34943876293</v>
+        <v>59788.38875939919</v>
       </c>
       <c r="AE3" t="n">
-        <v>66330.21641592777</v>
+        <v>81805.11117813428</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.33608139430342e-06</v>
+        <v>1.437861814867269e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.20775462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>59999.75365624929</v>
+        <v>73997.74618150693</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.76791859512046</v>
+        <v>58.07795791575673</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.98992947677412</v>
+        <v>79.46482423898063</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.88282041795438</v>
+        <v>71.88081294321202</v>
       </c>
       <c r="AD4" t="n">
-        <v>46767.91859512046</v>
+        <v>58077.95791575674</v>
       </c>
       <c r="AE4" t="n">
-        <v>63989.92947677412</v>
+        <v>79464.82423898063</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.732393352242852e-06</v>
+        <v>1.51553841092288e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.094907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>57882.82041795438</v>
+        <v>71880.81294321202</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>45.45441871968455</v>
+        <v>56.76445804032081</v>
       </c>
       <c r="AB5" t="n">
-        <v>62.19274099967883</v>
+        <v>77.66763576188534</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.25715308674262</v>
+        <v>70.25514561200025</v>
       </c>
       <c r="AD5" t="n">
-        <v>45454.41871968455</v>
+        <v>56764.45804032081</v>
       </c>
       <c r="AE5" t="n">
-        <v>62192.74099967883</v>
+        <v>77667.63576188534</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.003598357358183e-06</v>
+        <v>1.568694217121953e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.022569444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>56257.15308674262</v>
+        <v>70255.14561200025</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>45.54419120336174</v>
+        <v>56.85423052399801</v>
       </c>
       <c r="AB6" t="n">
-        <v>62.31557167232837</v>
+        <v>77.79046643453488</v>
       </c>
       <c r="AC6" t="n">
-        <v>56.36826097238847</v>
+        <v>70.3662534976461</v>
       </c>
       <c r="AD6" t="n">
-        <v>45544.19120336174</v>
+        <v>56854.23052399801</v>
       </c>
       <c r="AE6" t="n">
-        <v>62315.57167232837</v>
+        <v>77790.46643453487</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.988036955619883e-06</v>
+        <v>1.565644203887001e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.028356481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>56368.26097238847</v>
+        <v>70366.2534976461</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.76960963642136</v>
+        <v>80.97602331385859</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.04292851982818</v>
+        <v>110.7949675079975</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.499182359361</v>
+        <v>100.2208513107762</v>
       </c>
       <c r="AD2" t="n">
-        <v>57769.60963642136</v>
+        <v>80976.02331385859</v>
       </c>
       <c r="AE2" t="n">
-        <v>79042.92851982819</v>
+        <v>110794.9675079975</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.722533788586515e-06</v>
+        <v>1.100273334780302e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.771990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>71499.182359361</v>
+        <v>100220.8513107762</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.09068642158227</v>
+        <v>62.65131234156611</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.90453112399328</v>
+        <v>85.72228952652752</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.23294078516036</v>
+        <v>77.54107452612512</v>
       </c>
       <c r="AD3" t="n">
-        <v>51090.68642158227</v>
+        <v>62651.31234156611</v>
       </c>
       <c r="AE3" t="n">
-        <v>69904.53112399328</v>
+        <v>85722.28952652751</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.936156956087088e-06</v>
+        <v>1.333617035141802e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.288773148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>63232.94078516036</v>
+        <v>77541.07452612511</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.20753626750646</v>
+        <v>60.7681621874903</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.32792200446664</v>
+        <v>83.14568040700088</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.90223962370693</v>
+        <v>75.21037336467167</v>
       </c>
       <c r="AD4" t="n">
-        <v>49207.53626750646</v>
+        <v>60768.16218749031</v>
       </c>
       <c r="AE4" t="n">
-        <v>67327.92200446664</v>
+        <v>83145.68040700088</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.35057021773e-06</v>
+        <v>1.413296400648468e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.158564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>60902.23962370693</v>
+        <v>75210.37336467167</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.7448772308523</v>
+        <v>59.30550315083615</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.3266473825549</v>
+        <v>81.14440578508912</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.09196384290322</v>
+        <v>73.40009758386796</v>
       </c>
       <c r="AD5" t="n">
-        <v>47744.8772308523</v>
+        <v>59305.50315083614</v>
       </c>
       <c r="AE5" t="n">
-        <v>65326.64738255489</v>
+        <v>81144.40578508913</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.63510912739165e-06</v>
+        <v>1.468004784482319e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.077546296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>59091.96384290322</v>
+        <v>73400.09758386796</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.85207619558606</v>
+        <v>58.41270211556991</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.10507761850239</v>
+        <v>79.92283602103663</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.98697898264758</v>
+        <v>72.29511272361232</v>
       </c>
       <c r="AD6" t="n">
-        <v>46852.07619558607</v>
+        <v>58412.7021155699</v>
       </c>
       <c r="AE6" t="n">
-        <v>64105.07761850239</v>
+        <v>79922.83602103664</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.778585185154732e-06</v>
+        <v>1.495590970316813e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.039930555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>57986.97898264758</v>
+        <v>72295.11272361231</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>46.91212507786138</v>
+        <v>58.47275099784523</v>
       </c>
       <c r="AB7" t="n">
-        <v>64.18723914840116</v>
+        <v>80.0049975509354</v>
       </c>
       <c r="AC7" t="n">
-        <v>58.06129913144726</v>
+        <v>72.36943287241202</v>
       </c>
       <c r="AD7" t="n">
-        <v>46912.12507786138</v>
+        <v>58472.75099784523</v>
       </c>
       <c r="AE7" t="n">
-        <v>64187.23914840116</v>
+        <v>80004.9975509354</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.778310957215583e-06</v>
+        <v>1.495538244426456e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.039930555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>58061.29913144726</v>
+        <v>72369.43287241201</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.92702767429483</v>
+        <v>91.01997262221526</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.99144127864</v>
+        <v>124.5375420594548</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.68488968997383</v>
+        <v>112.6518538348712</v>
       </c>
       <c r="AD2" t="n">
-        <v>78927.02767429483</v>
+        <v>91019.97262221527</v>
       </c>
       <c r="AE2" t="n">
-        <v>107991.44127864</v>
+        <v>124537.5420594547</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.887733637008686e-06</v>
+        <v>9.105477048628197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.133680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>97684.88968997383</v>
+        <v>112651.8538348712</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.67918530081513</v>
+        <v>68.68678939416394</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.55096183772598</v>
+        <v>93.98029549634315</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.14960688340977</v>
+        <v>85.01094799636833</v>
       </c>
       <c r="AD3" t="n">
-        <v>56679.18530081514</v>
+        <v>68686.78939416393</v>
       </c>
       <c r="AE3" t="n">
-        <v>77550.96183772598</v>
+        <v>93980.29549634314</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.185778983318654e-06</v>
+        <v>1.152363707670565e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.476851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>70149.60688340977</v>
+        <v>85010.94799636833</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.64304768678137</v>
+        <v>65.65065178013016</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.39678440926888</v>
+        <v>89.82611806788604</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.39189831829866</v>
+        <v>81.25323943125721</v>
       </c>
       <c r="AD4" t="n">
-        <v>53643.04768678137</v>
+        <v>65650.65178013017</v>
       </c>
       <c r="AE4" t="n">
-        <v>73396.78440926888</v>
+        <v>89826.11806788604</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.716643531964507e-06</v>
+        <v>1.251259746665511e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.280092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>66391.89831829866</v>
+        <v>81253.23943125721</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.12750929121615</v>
+        <v>64.13511338456495</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.32315791562237</v>
+        <v>87.75249157423954</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.51617582685205</v>
+        <v>79.3775169398106</v>
       </c>
       <c r="AD5" t="n">
-        <v>52127.50929121615</v>
+        <v>64135.11338456495</v>
       </c>
       <c r="AE5" t="n">
-        <v>71323.15791562237</v>
+        <v>87752.49157423954</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.008333167289463e-06</v>
+        <v>1.305599313364968e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.184606481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>64516.17582685205</v>
+        <v>79377.51693981061</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>51.40130434162594</v>
+        <v>63.40890843497474</v>
       </c>
       <c r="AB6" t="n">
-        <v>70.32953226569229</v>
+        <v>86.75886592430945</v>
       </c>
       <c r="AC6" t="n">
-        <v>63.61738041438861</v>
+        <v>78.47872152734718</v>
       </c>
       <c r="AD6" t="n">
-        <v>51401.30434162594</v>
+        <v>63408.90843497474</v>
       </c>
       <c r="AE6" t="n">
-        <v>70329.53226569229</v>
+        <v>86758.86592430944</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.116168337372391e-06</v>
+        <v>1.325688187660211e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.152777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>63617.38041438862</v>
+        <v>78478.72152734718</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>50.51141185111796</v>
+        <v>62.51901594446675</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.11194210089398</v>
+        <v>85.54127575951114</v>
       </c>
       <c r="AC7" t="n">
-        <v>62.51599534601974</v>
+        <v>77.37733645897831</v>
       </c>
       <c r="AD7" t="n">
-        <v>50511.41185111795</v>
+        <v>62519.01594446675</v>
       </c>
       <c r="AE7" t="n">
-        <v>69111.94210089398</v>
+        <v>85541.27575951113</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.237238064411987e-06</v>
+        <v>1.3482425595371e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.115162037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>62515.99534601974</v>
+        <v>77377.3364589783</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>49.94826620630514</v>
+        <v>61.95587029965394</v>
       </c>
       <c r="AB8" t="n">
-        <v>68.34142138542904</v>
+        <v>84.7707550440462</v>
       </c>
       <c r="AC8" t="n">
-        <v>61.81901204620591</v>
+        <v>76.68035315916447</v>
       </c>
       <c r="AD8" t="n">
-        <v>49948.26620630514</v>
+        <v>61955.87029965394</v>
       </c>
       <c r="AE8" t="n">
-        <v>68341.42138542904</v>
+        <v>84770.75504404619</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.304046107929246e-06</v>
+        <v>1.360688391329245e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.097800925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>61819.01204620591</v>
+        <v>76680.35315916447</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>49.92651893164199</v>
+        <v>61.9341230249908</v>
       </c>
       <c r="AB9" t="n">
-        <v>68.31166580481289</v>
+        <v>84.74099946343006</v>
       </c>
       <c r="AC9" t="n">
-        <v>61.79209629644154</v>
+        <v>76.6534374094001</v>
       </c>
       <c r="AD9" t="n">
-        <v>49926.51893164199</v>
+        <v>61934.1230249908</v>
       </c>
       <c r="AE9" t="n">
-        <v>68311.66580481289</v>
+        <v>84740.99946343005</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.319186441087675e-06</v>
+        <v>1.363508920562647e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.092013888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>61792.09629644154</v>
+        <v>76653.4374094001</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.94867652157448</v>
+        <v>60.9839086646628</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.34198279688239</v>
+        <v>83.44087425513096</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.8195198773381</v>
+        <v>75.47739432624347</v>
       </c>
       <c r="AD2" t="n">
-        <v>49948.67652157448</v>
+        <v>60983.9086646628</v>
       </c>
       <c r="AE2" t="n">
-        <v>68341.9827968824</v>
+        <v>83440.87425513097</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.734676311447189e-06</v>
+        <v>1.349964085283702e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.459490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>61819.51987733811</v>
+        <v>75477.39432624348</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.62042514787741</v>
+        <v>56.65565729096573</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.41987831841892</v>
+        <v>77.51876977666748</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.46261273857146</v>
+        <v>70.12048718747683</v>
       </c>
       <c r="AD3" t="n">
-        <v>45620.42514787741</v>
+        <v>56655.65729096573</v>
       </c>
       <c r="AE3" t="n">
-        <v>62419.87831841892</v>
+        <v>77518.76977666748</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.851920241644666e-06</v>
+        <v>1.573915335576785e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>56462.61273857146</v>
+        <v>70120.48718747683</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.89395542976234</v>
+        <v>54.92918757285066</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.05764628362666</v>
+        <v>75.15653774187523</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.32582881376554</v>
+        <v>67.98370326267091</v>
       </c>
       <c r="AD4" t="n">
-        <v>43893.95542976233</v>
+        <v>54929.18757285066</v>
       </c>
       <c r="AE4" t="n">
-        <v>60057.64628362666</v>
+        <v>75156.53774187523</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.272862567200922e-06</v>
+        <v>1.658293113393791e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.002314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>54325.82881376554</v>
+        <v>67983.70326267091</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.0677965581052</v>
+        <v>55.10302870119352</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.29550338475455</v>
+        <v>75.39439484300313</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.5409851669964</v>
+        <v>68.19885961590178</v>
       </c>
       <c r="AD5" t="n">
-        <v>44067.7965581052</v>
+        <v>55103.02870119351</v>
       </c>
       <c r="AE5" t="n">
-        <v>60295.50338475456</v>
+        <v>75394.39484300313</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.20436637381789e-06</v>
+        <v>1.64456306954765e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.019675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>54540.9851669964</v>
+        <v>68198.85961590178</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.84170548571375</v>
+        <v>54.40170314656508</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.98615560507457</v>
+        <v>74.43481027886118</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.26116110523665</v>
+        <v>67.33085645577582</v>
       </c>
       <c r="AD2" t="n">
-        <v>43841.70548571376</v>
+        <v>54401.70314656507</v>
       </c>
       <c r="AE2" t="n">
-        <v>59986.15560507457</v>
+        <v>74434.81027886117</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.873532545282797e-06</v>
+        <v>1.647192247905593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.193287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>54261.16110523665</v>
+        <v>67330.85645577582</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.61538134029365</v>
+        <v>52.17537900114836</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.94000069066156</v>
+        <v>71.38865536461415</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.50572694065011</v>
+        <v>64.57542229123831</v>
       </c>
       <c r="AD3" t="n">
-        <v>41615.38134029365</v>
+        <v>52175.37900114836</v>
       </c>
       <c r="AE3" t="n">
-        <v>56940.00069066156</v>
+        <v>71388.65536461415</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.56430633006545e-06</v>
+        <v>1.791706443637481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.016782407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>51505.72694065011</v>
+        <v>64575.42229123831</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.60706521717489</v>
+        <v>52.16706287802961</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.92862220412909</v>
+        <v>71.37727687808164</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.49543440090246</v>
+        <v>64.56512975149064</v>
       </c>
       <c r="AD4" t="n">
-        <v>41607.0652171749</v>
+        <v>52167.06287802961</v>
       </c>
       <c r="AE4" t="n">
-        <v>56928.62220412909</v>
+        <v>71377.27687808164</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.574567414009019e-06</v>
+        <v>1.793853126569157e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.013888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>51495.43440090246</v>
+        <v>64565.12975149064</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.82691301942639</v>
+        <v>51.00704687630294</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.8611835492889</v>
+        <v>69.79009180822584</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.52987059311748</v>
+        <v>63.12942339707315</v>
       </c>
       <c r="AD2" t="n">
-        <v>40826.91301942639</v>
+        <v>51007.04687630294</v>
       </c>
       <c r="AE2" t="n">
-        <v>55861.18354928889</v>
+        <v>69790.09180822584</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.399804618737376e-06</v>
+        <v>1.825996373611224e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.126736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>50529.87059311748</v>
+        <v>63129.42339707314</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.59084418657045</v>
+        <v>49.77097804344681</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.16993964067531</v>
+        <v>68.09884789960466</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.00003662946121</v>
+        <v>61.5995894334145</v>
       </c>
       <c r="AD3" t="n">
-        <v>39590.84418657045</v>
+        <v>49770.97804344681</v>
       </c>
       <c r="AE3" t="n">
-        <v>54169.93964067531</v>
+        <v>68098.84789960466</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.871723169916081e-06</v>
+        <v>1.928584660149454e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.013888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>49000.0366294612</v>
+        <v>61599.5894334145</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.06809972980637</v>
+        <v>45.49522572482875</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.34996526243703</v>
+        <v>62.24857494439512</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.64007384099111</v>
+        <v>56.30765831813862</v>
       </c>
       <c r="AD2" t="n">
-        <v>36068.09972980637</v>
+        <v>45495.22572482875</v>
       </c>
       <c r="AE2" t="n">
-        <v>49349.96526243703</v>
+        <v>62248.57494439511</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.989389207241931e-06</v>
+        <v>2.138150461502817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.132523148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>44640.07384099111</v>
+        <v>56307.65831813862</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.88726080943952</v>
+        <v>78.84843255717475</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.4674158113836</v>
+        <v>107.8839039720244</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.16947296905475</v>
+        <v>97.5876155929721</v>
       </c>
       <c r="AD2" t="n">
-        <v>55887.26080943953</v>
+        <v>78848.43255717475</v>
       </c>
       <c r="AE2" t="n">
-        <v>76467.4158113836</v>
+        <v>107883.9039720244</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.931604422161007e-06</v>
+        <v>1.151074220294224e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.702546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>69169.47296905475</v>
+        <v>97587.6155929721</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.82211915556804</v>
+        <v>61.26012411070089</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.16882142539554</v>
+        <v>83.81880441416554</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.66288478411238</v>
+        <v>75.81925536132822</v>
       </c>
       <c r="AD3" t="n">
-        <v>49822.11915556804</v>
+        <v>61260.12411070088</v>
       </c>
       <c r="AE3" t="n">
-        <v>68168.82142539554</v>
+        <v>83818.80441416554</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.130865135817698e-06</v>
+        <v>1.38380013939706e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.248263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>61662.88478411238</v>
+        <v>75819.25536132822</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.76787483121941</v>
+        <v>59.20587978635226</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.35811371395968</v>
+        <v>81.00809670272969</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.12042707180203</v>
+        <v>73.27679764901785</v>
       </c>
       <c r="AD4" t="n">
-        <v>47767.87483121941</v>
+        <v>59205.87978635226</v>
       </c>
       <c r="AE4" t="n">
-        <v>65358.11371395968</v>
+        <v>81008.09670272969</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.596167214095584e-06</v>
+        <v>1.474095646115944e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>59120.42707180203</v>
+        <v>73276.79764901786</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.75226398362967</v>
+        <v>58.19026893876252</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.96851014669973</v>
+        <v>79.61849313546973</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.86344531868006</v>
+        <v>72.0198158958959</v>
       </c>
       <c r="AD5" t="n">
-        <v>46752.26398362967</v>
+        <v>58190.26893876252</v>
       </c>
       <c r="AE5" t="n">
-        <v>63968.51014669973</v>
+        <v>79618.49313546973</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.770212348613333e-06</v>
+        <v>1.50787046541484e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.063078703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>57863.44531868006</v>
+        <v>72019.8158958959</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.39345748655671</v>
+        <v>57.83146244168956</v>
       </c>
       <c r="AB6" t="n">
-        <v>63.47757526797928</v>
+        <v>79.12755825674928</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.41936457575311</v>
+        <v>71.57573515296893</v>
       </c>
       <c r="AD6" t="n">
-        <v>46393.45748655671</v>
+        <v>57831.46244168956</v>
       </c>
       <c r="AE6" t="n">
-        <v>63477.57526797928</v>
+        <v>79127.55825674928</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.829704542907436e-06</v>
+        <v>1.519415390916755e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.045717592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>57419.3645757531</v>
+        <v>71575.73515296893</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.43284021657759</v>
+        <v>88.41976042925295</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5787839632082</v>
+        <v>120.9798170237796</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.59793159903118</v>
+        <v>109.4336730833013</v>
       </c>
       <c r="AD2" t="n">
-        <v>76432.84021657759</v>
+        <v>88419.76042925294</v>
       </c>
       <c r="AE2" t="n">
-        <v>104578.7839632082</v>
+        <v>120979.8170237796</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.084361052128084e-06</v>
+        <v>9.540255568885448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.038194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>94597.93159903119</v>
+        <v>109433.6730833013</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.20436409019792</v>
+        <v>67.10594344830164</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.53304639284072</v>
+        <v>91.81731233121442</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.3242784564216</v>
+        <v>83.05439690875288</v>
       </c>
       <c r="AD3" t="n">
-        <v>55204.36409019792</v>
+        <v>67105.94344830164</v>
       </c>
       <c r="AE3" t="n">
-        <v>75533.04639284071</v>
+        <v>91817.31233121443</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.369343084945369e-06</v>
+        <v>1.195138586998233e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.424768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>68324.2784564216</v>
+        <v>83054.39690875288</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.2365098005215</v>
+        <v>64.13808915862522</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.47229722121698</v>
+        <v>87.75656315959068</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.65108148643907</v>
+        <v>79.38119993877035</v>
       </c>
       <c r="AD4" t="n">
-        <v>52236.5098005215</v>
+        <v>64138.08915862523</v>
       </c>
       <c r="AE4" t="n">
-        <v>71472.29722121697</v>
+        <v>87756.56315959069</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.927522668593871e-06</v>
+        <v>1.299874970326319e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.230902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>64651.08148643907</v>
+        <v>79381.19993877035</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.15909079985246</v>
+        <v>63.0606701579562</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.99812501213069</v>
+        <v>86.28239095050441</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.31760220397381</v>
+        <v>78.04772065630512</v>
       </c>
       <c r="AD5" t="n">
-        <v>51159.09079985246</v>
+        <v>63060.67015795619</v>
       </c>
       <c r="AE5" t="n">
-        <v>69998.12501213068</v>
+        <v>86282.39095050441</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.12507671268712e-06</v>
+        <v>1.336943857645555e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.167245370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>63317.60220397382</v>
+        <v>78047.72065630511</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.34687598851968</v>
+        <v>62.2484553466234</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.88681687487717</v>
+        <v>85.17108281325089</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.31235575560866</v>
+        <v>77.04247420793996</v>
       </c>
       <c r="AD6" t="n">
-        <v>50346.87598851968</v>
+        <v>62248.4553466234</v>
       </c>
       <c r="AE6" t="n">
-        <v>68886.81687487717</v>
+        <v>85171.08281325089</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.240748048420724e-06</v>
+        <v>1.358648337197239e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.132523148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>62312.35575560866</v>
+        <v>77042.47420793996</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.45459124746419</v>
+        <v>61.35617060556793</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.66595352734113</v>
+        <v>83.95021946571485</v>
       </c>
       <c r="AC7" t="n">
-        <v>61.2080098924686</v>
+        <v>75.93812834479989</v>
       </c>
       <c r="AD7" t="n">
-        <v>49454.5912474642</v>
+        <v>61356.17060556792</v>
       </c>
       <c r="AE7" t="n">
-        <v>67665.95352734113</v>
+        <v>83950.21946571485</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.373553901353446e-06</v>
+        <v>1.383567924241351e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.094907407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>61208.0098924686</v>
+        <v>75938.12834479989</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>48.91729356275052</v>
+        <v>60.81887292085424</v>
       </c>
       <c r="AB8" t="n">
-        <v>66.93079913121534</v>
+        <v>83.21506506958904</v>
       </c>
       <c r="AC8" t="n">
-        <v>60.54301760011313</v>
+        <v>75.27313605244443</v>
       </c>
       <c r="AD8" t="n">
-        <v>48917.29356275051</v>
+        <v>60818.87292085424</v>
       </c>
       <c r="AE8" t="n">
-        <v>66930.79913121533</v>
+        <v>83215.06506958905</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.468407599368496e-06</v>
+        <v>1.401366198428403e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.068865740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>60543.01760011313</v>
+        <v>75273.13605244443</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.46395083473195</v>
+        <v>43.53889245194691</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.15509797415229</v>
+        <v>59.5718334531068</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.65468160617815</v>
+        <v>53.88638127794773</v>
       </c>
       <c r="AD2" t="n">
-        <v>34463.95083473195</v>
+        <v>43538.89245194691</v>
       </c>
       <c r="AE2" t="n">
-        <v>47155.09797415229</v>
+        <v>59571.8334531068</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.673541814500883e-06</v>
+        <v>2.169186984704052e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.288773148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>42654.68160617815</v>
+        <v>53886.38127794773</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.06442350234666</v>
+        <v>56.79311913066886</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.0273764548284</v>
+        <v>77.70685113013758</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.0121321054712</v>
+        <v>70.29061832054565</v>
       </c>
       <c r="AD2" t="n">
-        <v>46064.42350234666</v>
+        <v>56793.11913066886</v>
       </c>
       <c r="AE2" t="n">
-        <v>63027.3764548284</v>
+        <v>77706.85113013758</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.399104898588956e-06</v>
+        <v>1.523685432255273e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.300347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>57012.1321054712</v>
+        <v>70290.61832054565</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.94827023614969</v>
+        <v>53.67696586447189</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.76371808104025</v>
+        <v>73.44319275634942</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.15539130279392</v>
+        <v>66.43387751786835</v>
       </c>
       <c r="AD3" t="n">
-        <v>42948.27023614969</v>
+        <v>53676.96586447189</v>
       </c>
       <c r="AE3" t="n">
-        <v>58763.71808104024</v>
+        <v>73443.19275634942</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319723539088421e-06</v>
+        <v>1.713266906016943e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.045717592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>53155.39130279391</v>
+        <v>66433.87751786836</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>31.43289199793674</v>
+        <v>52.89010423748085</v>
       </c>
       <c r="AB4" t="n">
-        <v>43.00786955279082</v>
+        <v>72.36657396441582</v>
       </c>
       <c r="AC4" t="n">
-        <v>38.90325884466743</v>
+        <v>65.46000971239259</v>
       </c>
       <c r="AD4" t="n">
-        <v>31432.89199793674</v>
+        <v>52890.10423748085</v>
       </c>
       <c r="AE4" t="n">
-        <v>43007.86955279082</v>
+        <v>72366.57396441582</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.505258176982181e-06</v>
+        <v>1.751473747089218e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.999421296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>38903.25884466743</v>
+        <v>65460.00971239259</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.72060418486224</v>
+        <v>63.06725236820728</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.76641239772292</v>
+        <v>86.29139702095655</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.01256531978348</v>
+        <v>78.0558672000334</v>
       </c>
       <c r="AD2" t="n">
-        <v>51720.60418486224</v>
+        <v>63067.25236820728</v>
       </c>
       <c r="AE2" t="n">
-        <v>70766.41239772292</v>
+        <v>86291.39702095655</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.484623114849565e-06</v>
+        <v>1.284723228603963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.526041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>64012.56531978348</v>
+        <v>78055.8672000334</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.1128677418436</v>
+        <v>58.28892372459642</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.4619041174028</v>
+        <v>79.75347696578959</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.30975046130217</v>
+        <v>72.14191705890106</v>
       </c>
       <c r="AD3" t="n">
-        <v>47112.8677418436</v>
+        <v>58288.92372459643</v>
       </c>
       <c r="AE3" t="n">
-        <v>64461.9041174028</v>
+        <v>79753.47696578958</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.566591670597318e-06</v>
+        <v>1.499081119813569e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.164351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>58309.75046130217</v>
+        <v>72141.91705890106</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.36313296257553</v>
+        <v>56.53918894532836</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.06783979955897</v>
+        <v>77.35941264794575</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.14417228186223</v>
+        <v>69.97633887946112</v>
       </c>
       <c r="AD4" t="n">
-        <v>45363.13296257553</v>
+        <v>56539.18894532836</v>
       </c>
       <c r="AE4" t="n">
-        <v>62067.83979955898</v>
+        <v>77359.41264794575</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.980282200727069e-06</v>
+        <v>1.581040830362377e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.05150462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>56144.17228186222</v>
+        <v>69976.33887946112</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.93961387283321</v>
+        <v>56.11566985558603</v>
       </c>
       <c r="AB5" t="n">
-        <v>61.48836229663025</v>
+        <v>76.77993514501702</v>
       </c>
       <c r="AC5" t="n">
-        <v>55.61999929851105</v>
+        <v>69.45216589610995</v>
       </c>
       <c r="AD5" t="n">
-        <v>44939.61387283321</v>
+        <v>56115.66985558603</v>
       </c>
       <c r="AE5" t="n">
-        <v>61488.36229663025</v>
+        <v>76779.93514501702</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.052843598952045e-06</v>
+        <v>1.595416579291583e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.034143518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>55619.99929851104</v>
+        <v>69452.16589610995</v>
       </c>
     </row>
   </sheetData>
